--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26615.33650036461</v>
+        <v>23883.75703853986</v>
       </c>
     </row>
     <row r="7">
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>101.079007276929</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>103.6870325165814</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>204.2618969958137</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -820,13 +820,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>89.07602811714224</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>126.7632886126195</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -859,25 +859,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>24.59170878023815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>245.1069560785594</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>190.0642635624104</v>
+        <v>171.7498680634315</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>213.1276472348842</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>212.8700417605933</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,25 +1291,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>0.5356946325021295</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>142.2811685645582</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>115.7063133373728</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819388</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>113.5413580759688</v>
       </c>
       <c r="U16" t="n">
-        <v>118.126645799445</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>115.7063133373722</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2062,10 +2062,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>246.2840235835277</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2239,19 +2239,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>87.61360486368916</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>53.76947475493767</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,19 +2482,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>106.3434154283418</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,16 +2713,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766865</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>73.23997380652447</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2953,10 +2953,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>34.21058558914873</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -2998,7 +2998,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>80.08971311158706</v>
       </c>
     </row>
     <row r="32">
@@ -3187,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>66.7846639981983</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3196,7 +3196,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3205,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,10 +3235,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>94.56071137692042</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3667,19 +3667,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>108.376498265149</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,19 +3904,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>78.89395497654093</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4138,10 +4138,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0.2811815126420993</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1816.955293888756</v>
+        <v>1494.154169929768</v>
       </c>
       <c r="C2" t="n">
-        <v>1447.992776948344</v>
+        <v>1125.191652989356</v>
       </c>
       <c r="D2" t="n">
-        <v>1089.727078341594</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="E2" t="n">
-        <v>987.6270709911603</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F2" t="n">
-        <v>576.6411662015528</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G2" t="n">
-        <v>158.6773580997396</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>158.6773580997396</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>2169.72394915887</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W2" t="n">
-        <v>1816.955293888756</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X2" t="n">
-        <v>1816.955293888756</v>
+        <v>1884.29350190558</v>
       </c>
       <c r="Y2" t="n">
-        <v>1816.955293888756</v>
+        <v>1494.154169929768</v>
       </c>
     </row>
     <row r="3">
@@ -4398,34 +4398,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>290.8087152951862</v>
+        <v>181.9867076916973</v>
       </c>
       <c r="C4" t="n">
-        <v>290.8087152951862</v>
+        <v>181.9867076916973</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>181.9867076916973</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406182</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U4" t="n">
-        <v>290.8087152951862</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="V4" t="n">
-        <v>290.8087152951862</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="W4" t="n">
-        <v>290.8087152951862</v>
+        <v>181.9867076916973</v>
       </c>
       <c r="X4" t="n">
-        <v>290.8087152951862</v>
+        <v>181.9867076916973</v>
       </c>
       <c r="Y4" t="n">
-        <v>290.8087152951862</v>
+        <v>181.9867076916973</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1637.643464250441</v>
+        <v>1154.375564375168</v>
       </c>
       <c r="C5" t="n">
-        <v>1268.68094731003</v>
+        <v>1154.375564375168</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>796.1098657684179</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>796.1098657684179</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W5" t="n">
-        <v>1662.48357412947</v>
+        <v>1914.44116270037</v>
       </c>
       <c r="X5" t="n">
-        <v>1662.48357412947</v>
+        <v>1540.97540443929</v>
       </c>
       <c r="Y5" t="n">
-        <v>1662.48357412947</v>
+        <v>1540.97540443929</v>
       </c>
     </row>
     <row r="6">
@@ -4647,7 +4647,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
         <v>670.8219208598713</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>358.5813018857447</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C7" t="n">
-        <v>358.5813018857447</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>358.5813018857447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>358.5813018857447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>358.5813018857447</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="W7" t="n">
-        <v>358.5813018857447</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="X7" t="n">
-        <v>358.5813018857447</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="Y7" t="n">
-        <v>358.5813018857447</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1078.452595730071</v>
+        <v>1097.036912576164</v>
       </c>
       <c r="C8" t="n">
-        <v>1078.452595730071</v>
+        <v>1097.036912576164</v>
       </c>
       <c r="D8" t="n">
-        <v>720.1868971233209</v>
+        <v>1097.036912576164</v>
       </c>
       <c r="E8" t="n">
-        <v>720.1868971233209</v>
+        <v>1097.036912576164</v>
       </c>
       <c r="F8" t="n">
-        <v>504.9064453709126</v>
+        <v>686.0510077865565</v>
       </c>
       <c r="G8" t="n">
-        <v>491.8590676477442</v>
+        <v>268.963226022984</v>
       </c>
       <c r="H8" t="n">
-        <v>173.6359524202537</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2482.349229285934</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.657526031085</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="V8" t="n">
-        <v>2228.657526031085</v>
+        <v>2209.87116617148</v>
       </c>
       <c r="W8" t="n">
-        <v>2228.657526031085</v>
+        <v>1857.102510901366</v>
       </c>
       <c r="X8" t="n">
-        <v>1855.191767770005</v>
+        <v>1483.636752640286</v>
       </c>
       <c r="Y8" t="n">
-        <v>1465.052435794193</v>
+        <v>1483.636752640286</v>
       </c>
     </row>
     <row r="9">
@@ -4887,16 +4887,16 @@
         <v>502.03063798307</v>
       </c>
       <c r="L9" t="n">
-        <v>1006.392177849189</v>
+        <v>829.2828935107518</v>
       </c>
       <c r="M9" t="n">
-        <v>1233.514064314702</v>
+        <v>1469.828242977856</v>
       </c>
       <c r="N9" t="n">
-        <v>1432.170805967367</v>
+        <v>2137.372643004866</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>2296.884955673627</v>
       </c>
       <c r="P9" t="n">
         <v>2405.574583200926</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>201.8560754027576</v>
+        <v>798.6520693844261</v>
       </c>
       <c r="C10" t="n">
-        <v>201.8560754027576</v>
+        <v>629.7158864565192</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>479.5992470441835</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>479.5992470441835</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>332.7092995462731</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>332.7092995462731</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>178.4546564460382</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>1053.877663279709</v>
+        <v>1053.336557590313</v>
       </c>
       <c r="S10" t="n">
-        <v>1053.877663279709</v>
+        <v>1053.336557590313</v>
       </c>
       <c r="T10" t="n">
-        <v>828.2484665920741</v>
+        <v>1053.336557590313</v>
       </c>
       <c r="U10" t="n">
-        <v>828.2484665920741</v>
+        <v>1053.336557590313</v>
       </c>
       <c r="V10" t="n">
-        <v>573.5639783861873</v>
+        <v>798.6520693844261</v>
       </c>
       <c r="W10" t="n">
-        <v>429.8456263007749</v>
+        <v>798.6520693844261</v>
       </c>
       <c r="X10" t="n">
-        <v>201.8560754027576</v>
+        <v>798.6520693844261</v>
       </c>
       <c r="Y10" t="n">
-        <v>201.8560754027576</v>
+        <v>798.6520693844261</v>
       </c>
     </row>
     <row r="11">
@@ -5021,10 +5021,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5036,28 +5036,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5121,22 +5121,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>119.2902967703784</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703784</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5197,46 +5197,46 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2330.088019603117</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2110.486554626058</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U13" t="n">
-        <v>1821.411327970255</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V13" t="n">
-        <v>1566.726839764368</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W13" t="n">
-        <v>1277.309669727408</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X13" t="n">
         <v>1277.309669727408</v>
@@ -5267,28 +5267,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5358,22 +5358,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>866.4638174991043</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C16" t="n">
-        <v>697.5276345711974</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E16" t="n">
         <v>549.6145409888043</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>2332.274843099484</v>
       </c>
       <c r="U16" t="n">
-        <v>2040.996070613741</v>
+        <v>2043.199616443682</v>
       </c>
       <c r="V16" t="n">
-        <v>1786.311582407854</v>
+        <v>1788.515128237795</v>
       </c>
       <c r="W16" t="n">
-        <v>1496.894412370893</v>
+        <v>1499.097958200834</v>
       </c>
       <c r="X16" t="n">
-        <v>1268.904861472876</v>
+        <v>1271.108407302817</v>
       </c>
       <c r="Y16" t="n">
-        <v>1048.112282329346</v>
+        <v>1050.315828159287</v>
       </c>
     </row>
     <row r="17">
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5595,22 +5595,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>991.7436897307817</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C19" t="n">
-        <v>822.8075068028749</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D19" t="n">
-        <v>672.6908673905391</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E19" t="n">
-        <v>524.777773808146</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F19" t="n">
-        <v>377.8878263102356</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>210.6917270251155</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X19" t="n">
-        <v>1394.184733704551</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y19" t="n">
-        <v>1173.392154561021</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5768,7 +5768,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5829,22 +5829,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1700.311647517212</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O21" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>870.3164745246296</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C22" t="n">
-        <v>870.3164745246296</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D22" t="n">
-        <v>720.1998351122938</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
         <v>317.6151975578602</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2325.6047790701</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W22" t="n">
-        <v>1500.747069396417</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X22" t="n">
-        <v>1272.757518498399</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y22" t="n">
-        <v>1051.964939354869</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5978,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6066,22 +6066,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>701.4712640439268</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C25" t="n">
-        <v>532.5350811160199</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D25" t="n">
-        <v>382.4184417036842</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036842</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X25" t="n">
-        <v>1103.912308017697</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>883.1197288741665</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6227,22 +6227,22 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6303,19 +6303,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2148.043492616111</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>948.5505208511906</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C28" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>2123.082773965825</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1868.398285759938</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1578.981115722978</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1350.99156482496</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y28" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6537,25 +6537,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>696.7084350851671</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>527.7722521572603</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>377.6556127449245</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>878.3568999154069</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6689,16 +6689,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6777,19 +6777,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>915.1035305473698</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C34" t="n">
-        <v>847.6442739835331</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711974</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2284.401509754965</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>2064.800044777906</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1775.724818122104</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625878</v>
+        <v>1521.040329916217</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.885660588917</v>
+        <v>1231.623159879256</v>
       </c>
       <c r="X34" t="n">
-        <v>1135.8961096909</v>
+        <v>1003.633608981239</v>
       </c>
       <c r="Y34" t="n">
-        <v>915.1035305473698</v>
+        <v>782.8410298377091</v>
       </c>
     </row>
     <row r="35">
@@ -6923,16 +6923,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6944,13 +6944,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7026,10 +7026,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7117,13 +7117,13 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
         <v>1746.193029533436</v>
@@ -7163,16 +7163,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7251,25 +7251,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>916.3099000622261</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>747.3737171343192</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>747.3737171343192</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>599.4606235519261</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>452.5706760540157</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>285.3745767688957</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,31 +7397,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7491,22 +7491,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>741.8431516380886</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>572.9069687101817</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>422.7903292978459</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E43" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7637,10 +7637,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7655,10 +7655,10 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7725,25 +7725,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>869.6905094135296</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>700.7543264856228</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
         <v>402.7245934908939</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>2044.222762528164</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1789.538274322277</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1500.121104285317</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1272.131553387299</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1051.338974243769</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8234,7 +8234,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8295,10 +8295,10 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627889</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8535,19 +8535,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>191.9420782949372</v>
       </c>
       <c r="M9" t="n">
-        <v>48.10560617263471</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -11078,7 +11078,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>359.6567410516495</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22556,16 +22556,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>48.24428372827988</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,22 +22598,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>165.4692036826554</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23434,7 +23434,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>65.3199726642718</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>110.0033420516661</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,10 +23656,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>103.8640922513194</v>
       </c>
       <c r="U16" t="n">
-        <v>168.0578285897992</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>24.58839950885167</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,10 +23950,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>40.2389747530633</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,19 +24127,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>58.82035778288001</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,22 +24172,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>127.2568112467079</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>119.3662399606954</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,16 +24601,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>57.22910392194132</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,10 +24652,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>212.9445005827197</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,10 +24841,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>112.2233770574204</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
     </row>
     <row r="32">
@@ -25075,7 +25075,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>100.4621571004295</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25123,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>86.46557462472417</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>31.91821458107486</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25597,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>67.54000767002825</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26026,10 +26026,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>285.9032928766021</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>298593.7657794695</v>
+        <v>298593.7657794694</v>
       </c>
       <c r="C2" t="n">
+        <v>328416.7079457132</v>
+      </c>
+      <c r="D2" t="n">
         <v>328416.7079457134</v>
       </c>
-      <c r="D2" t="n">
-        <v>328416.7079457132</v>
-      </c>
       <c r="E2" t="n">
-        <v>322858.6398760025</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="F2" t="n">
         <v>322858.6398760024</v>
       </c>
       <c r="G2" t="n">
+        <v>322858.6398760024</v>
+      </c>
+      <c r="H2" t="n">
         <v>322858.6398760023</v>
       </c>
-      <c r="H2" t="n">
-        <v>322858.6398760024</v>
-      </c>
       <c r="I2" t="n">
-        <v>322858.6398760024</v>
+        <v>322858.6398760025</v>
       </c>
       <c r="J2" t="n">
-        <v>322858.6398760024</v>
+        <v>322858.6398760025</v>
       </c>
       <c r="K2" t="n">
         <v>322858.6398760024</v>
@@ -26344,16 +26344,16 @@
         <v>322858.6398760025</v>
       </c>
       <c r="M2" t="n">
+        <v>322858.6398760025</v>
+      </c>
+      <c r="N2" t="n">
         <v>322858.6398760024</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>322858.6398760025</v>
       </c>
-      <c r="O2" t="n">
-        <v>322858.6398760026</v>
-      </c>
       <c r="P2" t="n">
-        <v>322858.6398760025</v>
+        <v>322858.6398760024</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808065</v>
+        <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925932</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,40 +26421,40 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012793</v>
+        <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682752</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682753</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682766</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="K4" t="n">
         <v>5677.536566682751</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.536566682752</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682751</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682707</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="O4" t="n">
-        <v>5677.536566682747</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="P4" t="n">
         <v>5677.536566682745</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-541600.7232488525</v>
+        <v>-541787.1166373915</v>
       </c>
       <c r="C6" t="n">
-        <v>35635.2144192706</v>
+        <v>35635.21441927049</v>
       </c>
       <c r="D6" t="n">
-        <v>-120168.5916745245</v>
+        <v>-120168.5916745244</v>
       </c>
       <c r="E6" t="n">
-        <v>-554994.1178953939</v>
+        <v>-555028.8558208294</v>
       </c>
       <c r="F6" t="n">
-        <v>216058.5734854127</v>
+        <v>216023.8355599768</v>
       </c>
       <c r="G6" t="n">
-        <v>216058.5734854125</v>
+        <v>216023.8355599769</v>
       </c>
       <c r="H6" t="n">
-        <v>216058.5734854126</v>
+        <v>216023.8355599768</v>
       </c>
       <c r="I6" t="n">
-        <v>216058.5734854126</v>
+        <v>216023.8355599768</v>
       </c>
       <c r="J6" t="n">
-        <v>39635.35429281952</v>
+        <v>39600.61636738379</v>
       </c>
       <c r="K6" t="n">
-        <v>216058.5734854126</v>
+        <v>216023.8355599772</v>
       </c>
       <c r="L6" t="n">
-        <v>216058.5734854126</v>
+        <v>216023.8355599769</v>
       </c>
       <c r="M6" t="n">
-        <v>91850.06277735411</v>
+        <v>91815.32485191847</v>
       </c>
       <c r="N6" t="n">
-        <v>216058.5734854127</v>
+        <v>216023.8355599768</v>
       </c>
       <c r="O6" t="n">
-        <v>216058.5734854127</v>
+        <v>216023.8355599768</v>
       </c>
       <c r="P6" t="n">
-        <v>216058.5734854126</v>
+        <v>216023.835559977</v>
       </c>
     </row>
   </sheetData>
@@ -26966,7 +26966,7 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036089</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,10 +26978,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>23.07710061183104</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>280.8513627953328</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27540,13 +27540,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>59.53944490107011</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>19.67067403394967</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27579,25 +27579,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>358.1421328832424</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>161.769089663152</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,7 +27831,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>62.07337976141758</v>
+        <v>80.38777526039652</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27856,22 +27856,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>193.7483985068272</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>102.1708423146222</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>17.69584188176898</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>128.6374870352892</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
         <v>286.260654658097</v>
@@ -28071,10 +28071,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>144.2418297720328</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>163.572382128305</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32078,25 +32078,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32315,10 +32315,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,13 +32327,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>316.0872899694776</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32549,7 +32549,7 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32558,16 +32558,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P21" t="n">
-        <v>437.8531046913764</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,31 +33014,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>551.7051287319844</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33257,16 +33257,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0899880277084</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,10 +33275,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33497,7 +33497,7 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33746,13 +33746,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33971,28 +33971,28 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>430.400187030115</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34211,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34445,13 +34445,13 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,13 +34460,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,7 +34787,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34954,7 +34954,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307155</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35255,19 +35255,19 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>330.5578338663453</v>
       </c>
       <c r="M9" t="n">
-        <v>229.4160469348618</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q9" t="n">
         <v>233.0438950105733</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>25.73094315394599</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35653,7 +35653,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,10 +35963,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,13 +35975,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>173.4910455250332</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36124,7 +36124,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
         <v>735.3001107902948</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36206,16 +36206,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P21" t="n">
-        <v>303.8786972770462</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,22 +36671,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>409.1088842875399</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>481.5356082478342</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,10 +36923,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37394,13 +37394,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>291.8458072502408</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,13 +38108,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
